--- a/Data/WaterQuality/Lab Analyses_Lakes10-20-22.xlsx
+++ b/Data/WaterQuality/Lab Analyses_Lakes10-20-22.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\immcc\Documents\SplashNBurn\Data\WaterQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AE8DCC-76AB-4D11-BCE1-AE483E47D3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7F4B13-A97C-42C9-8966-5C9F5234791E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,19 +299,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="I132" sqref="I132"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3463,7 +3463,7 @@
         <v>3.2</v>
       </c>
       <c r="E69" s="4">
-        <v>208</v>
+        <v>20.9</v>
       </c>
       <c r="F69" s="4">
         <v>710</v>
